--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-922521.3975153164</v>
+        <v>-924408.9790317189</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>81.41237635996006</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.8738207154682</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>60.79152971843325</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>23.35094087055407</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>47.11440151071707</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>45.24972634440809</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>76.07001880870067</v>
+        <v>65.29997400339131</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>328.4378163475058</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>169.0361482981425</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>157.7229783759809</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>69.46712896146758</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>83.30733175418462</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>75.57809216555847</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174148</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.69985694152467</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>62.87500567467944</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.80344346437192</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>106.8698659703787</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>96.84207451769339</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>178.6584025680376</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700711</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.4122163896556</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>36.60092856328389</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>63.78553641704121</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897937</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571522</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523602</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550465</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298325</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700206</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952713</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080343</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898654</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373793</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1027.824306174799</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>616.8384013851912</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2467.983615548053</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2467.983615548053</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2467.983615548053</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>2094.517857286973</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.378525311161</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>675.1252560999005</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1744.21174165236</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1385.946043045609</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1000.157790447365</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2596.413607261435</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2596.413607261435</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2342.651821899526</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2011.588934555955</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1658.820279285841</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1658.820279285841</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.6060931634762</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>396.6060931634762</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>651.2905813693631</v>
+        <v>662.1694145060392</v>
       </c>
       <c r="U7" t="n">
-        <v>651.2905813693631</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="V7" t="n">
-        <v>396.6060931634762</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W7" t="n">
-        <v>396.6060931634762</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X7" t="n">
-        <v>396.6060931634762</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.6060931634762</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.109828622464</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C8" t="n">
-        <v>546.109828622464</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>546.109828622464</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>546.109828622464</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>539.1643278732605</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1919.875066246662</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>1919.875066246662</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>568.8128444327161</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>568.8128444327161</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V10" t="n">
-        <v>568.8128444327161</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W10" t="n">
-        <v>568.8128444327161</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X10" t="n">
-        <v>568.8128444327161</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.5883316929526</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>471.5883316929526</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>321.4716922806168</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E13" t="n">
-        <v>173.5585986982237</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345001</v>
+        <v>720.450451650053</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364827</v>
+        <v>720.450451650053</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5883316929526</v>
+        <v>499.6578725065228</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,46 +5273,46 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.2646934632136</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632136</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508778</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>922.4921098188664</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="X16" t="n">
-        <v>1020.446367141521</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y16" t="n">
-        <v>1020.446367141521</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.662099591804</v>
+        <v>355.2830904386606</v>
       </c>
       <c r="C19" t="n">
-        <v>383.7259166638971</v>
+        <v>355.2830904386606</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>205.1664510263249</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>205.1664510263249</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>955.103143565574</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>955.103143565574</v>
+        <v>985.7136853104478</v>
       </c>
       <c r="X19" t="n">
-        <v>955.103143565574</v>
+        <v>757.7241344124304</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.3105644220439</v>
+        <v>536.9315552689003</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,7 +5741,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5847,10 +5847,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293932</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924326</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.0373687508851</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>805.539183663959</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>805.539183663959</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>805.539183663959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6485,7 +6485,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6531,37 +6531,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.7611155708649</v>
+        <v>604.5641438163727</v>
       </c>
       <c r="C31" t="n">
-        <v>498.5857979243288</v>
+        <v>491.3888261698362</v>
       </c>
       <c r="D31" t="n">
-        <v>404.2300237933639</v>
+        <v>397.033052038871</v>
       </c>
       <c r="E31" t="n">
-        <v>312.0777954923416</v>
+        <v>360.0624171264631</v>
       </c>
       <c r="F31" t="n">
-        <v>312.0777954923416</v>
+        <v>360.0624171264631</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.6479607276542</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.45090536675</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962041</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167067</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818932</v>
+        <v>902.6804289818895</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818932</v>
+        <v>730.451743365242</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.6487151197339</v>
+        <v>730.451743365242</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108342</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506737</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083215</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504522</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045218</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010328</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6944,19 +6944,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,13 +7108,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7348,13 +7348,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,31 +7397,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,7 +7582,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,19 +7655,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,22 +7786,22 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,28 +7810,28 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445216</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>62.79465928983132</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>96.52464842775268</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>69.84295585737277</v>
+        <v>145.421048022927</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836053</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.1321232404126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>189.2626376491486</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>120.8120295538404</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>38.55118205255256</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>70.40474658093444</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>73.47924075579041</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338614</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>54.62977745472853</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437449</v>
       </c>
       <c r="G31" t="n">
-        <v>47.50477541777927</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-8.688605518402233e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1214025.446096307</v>
+        <v>1214025.446096308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1214025.446096307</v>
+        <v>1214025.446096308</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1214025.446096307</v>
+        <v>1214025.446096308</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1214025.446096307</v>
+        <v>1214025.446096308</v>
       </c>
     </row>
     <row r="10">
@@ -26317,7 +26317,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
         <v>175963.0768819691</v>
@@ -26335,25 +26335,25 @@
         <v>175963.076881969</v>
       </c>
       <c r="J2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.076881969</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053714</v>
+        <v>183069.9618053715</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.398219464</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194639</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.6053028454</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086714</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.6053028454</v>
       </c>
     </row>
     <row r="4">
@@ -26424,25 +26424,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687062</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106731</v>
+        <v>40339.23010106714</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,13 +26451,13 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="O4" t="n">
-        <v>44593.3948281912</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,10 +26491,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-653725.4268450146</v>
+        <v>-653725.4268450147</v>
       </c>
       <c r="C6" t="n">
         <v>-63757.54763047013</v>
       </c>
       <c r="D6" t="n">
-        <v>-63757.54763047028</v>
+        <v>-63757.5476304702</v>
       </c>
       <c r="E6" t="n">
-        <v>-463358.8931305143</v>
+        <v>-463456.3522564868</v>
       </c>
       <c r="F6" t="n">
-        <v>61801.14334638177</v>
+        <v>61703.68422040968</v>
       </c>
       <c r="G6" t="n">
-        <v>61801.14334638152</v>
+        <v>61703.68422040959</v>
       </c>
       <c r="H6" t="n">
-        <v>61801.14334638164</v>
+        <v>61703.68422040947</v>
       </c>
       <c r="I6" t="n">
-        <v>61801.14334638164</v>
+        <v>61703.68422040947</v>
       </c>
       <c r="J6" t="n">
-        <v>-114622.0758462112</v>
+        <v>-114719.5349721835</v>
       </c>
       <c r="K6" t="n">
-        <v>1939.917871235593</v>
+        <v>1921.424133301831</v>
       </c>
       <c r="L6" t="n">
-        <v>32082.99077038062</v>
+        <v>32082.99077038033</v>
       </c>
       <c r="M6" t="n">
-        <v>-92375.11766258962</v>
+        <v>-92375.11766258994</v>
       </c>
       <c r="N6" t="n">
-        <v>42425.89757124751</v>
+        <v>42425.89757124732</v>
       </c>
       <c r="O6" t="n">
-        <v>42425.89757124745</v>
+        <v>42425.89757124752</v>
       </c>
       <c r="P6" t="n">
-        <v>-1736.707731598188</v>
+        <v>-1736.707731598042</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,13 +26793,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855676</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>332.3717936608349</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>24.35034679282111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>87.8239432997791</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>123.3142511096038</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>359.7616442309944</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>129.1659864645634</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>148.9650866493836</v>
+        <v>159.735131454693</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>85.34635367328917</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>200.6949523803265</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.31212708210339</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>182.6705143623604</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.059512737426938e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.292843414077652e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855676</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.7110267941223</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043153</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>269.888074221356</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
